--- a/bilim-merkezi-ziyaretci-sayilari/bilim-merkezi-ziyaretci-sayilari.xlsx
+++ b/bilim-merkezi-ziyaretci-sayilari/bilim-merkezi-ziyaretci-sayilari.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>baslangic_tarihi</t>
+          <t>yil</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>bitis_tarihi</t>
+          <t>ay</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -465,11 +461,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>42005</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>42035</v>
+      <c r="A2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>1624</v>
@@ -482,11 +480,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>42036</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>42063</v>
+      <c r="A3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>2692</v>
@@ -499,11 +499,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>42064</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>42094</v>
+      <c r="A4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>9575</v>
@@ -516,11 +518,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>42095</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>42124</v>
+      <c r="A5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>12221</v>
@@ -533,11 +537,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>42125</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>42155</v>
+      <c r="A6" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>12291</v>
@@ -550,11 +556,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>42156</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>42185</v>
+      <c r="A7" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>4716</v>
@@ -567,11 +575,13 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>42186</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>42216</v>
+      <c r="A8" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>4483</v>
@@ -584,11 +594,13 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>42217</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>42247</v>
+      <c r="A9" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>4986</v>
@@ -601,11 +613,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>42248</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>42277</v>
+      <c r="A10" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>1084</v>
@@ -618,11 +632,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>42278</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>42308</v>
+      <c r="A11" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>5303</v>
@@ -635,11 +651,13 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>42309</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>42338</v>
+      <c r="A12" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>6952</v>
@@ -652,11 +670,13 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>42339</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>42369</v>
+      <c r="A13" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>7218</v>
@@ -669,11 +689,13 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>42370</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>42400</v>
+      <c r="A14" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>5244</v>
@@ -686,11 +708,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>42401</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>42429</v>
+      <c r="A15" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>3522</v>
@@ -703,11 +727,13 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>42430</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>42460</v>
+      <c r="A16" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>9306</v>
@@ -720,11 +746,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>42461</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>42490</v>
+      <c r="A17" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>7003</v>
@@ -737,11 +765,13 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>42491</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>42521</v>
+      <c r="A18" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>5184</v>
@@ -754,11 +784,13 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>42522</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>42551</v>
+      <c r="A19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>1736</v>
@@ -771,11 +803,13 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>42552</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>42582</v>
+      <c r="A20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>25</v>
@@ -788,11 +822,13 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>42583</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>42613</v>
+      <c r="A21" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>3548</v>
@@ -805,11 +841,13 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>42614</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>42643</v>
+      <c r="A22" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>1097</v>
@@ -822,11 +860,13 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>42644</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>42674</v>
+      <c r="A23" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>5711</v>
@@ -839,11 +879,13 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>42675</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>42704</v>
+      <c r="A24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>5075</v>
@@ -856,11 +898,13 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>42705</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>42735</v>
+      <c r="A25" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>6415</v>
@@ -873,11 +917,13 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>42766</v>
+      <c r="A26" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>1562</v>
@@ -890,11 +936,13 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>42767</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>42794</v>
+      <c r="A27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>4495</v>
@@ -907,11 +955,13 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>42795</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>42825</v>
+      <c r="A28" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>11942</v>
@@ -924,11 +974,13 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>42826</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>42855</v>
+      <c r="A29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>1126</v>
@@ -941,11 +993,13 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>42856</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>42886</v>
+      <c r="A30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>8902</v>
@@ -958,11 +1012,13 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>42887</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>42916</v>
+      <c r="A31" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>6450</v>
@@ -975,11 +1031,13 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>42917</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>42947</v>
+      <c r="A32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>2674</v>
@@ -992,11 +1050,13 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>42948</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>42978</v>
+      <c r="A33" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>2812</v>
@@ -1009,11 +1069,13 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>42979</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>43008</v>
+      <c r="A34" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C34" t="n">
         <v>2257</v>
@@ -1026,11 +1088,13 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>43009</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>43039</v>
+      <c r="A35" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>5503</v>
@@ -1043,11 +1107,13 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>43040</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>43069</v>
+      <c r="A36" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>9548</v>
@@ -1060,11 +1126,13 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>43070</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>43100</v>
+      <c r="A37" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>12003</v>
@@ -1077,11 +1145,13 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>43131</v>
+      <c r="A38" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C38" t="n">
         <v>4683</v>
@@ -1094,11 +1164,13 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>43132</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>43159</v>
+      <c r="A39" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C39" t="n">
         <v>4387</v>
@@ -1111,11 +1183,13 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>43160</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>43190</v>
+      <c r="A40" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C40" t="n">
         <v>10171</v>
@@ -1128,11 +1202,13 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>43191</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>43220</v>
+      <c r="A41" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C41" t="n">
         <v>12302</v>
@@ -1145,11 +1221,13 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>43221</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>43251</v>
+      <c r="A42" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C42" t="n">
         <v>10445</v>
@@ -1162,11 +1240,13 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>43252</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>43281</v>
+      <c r="A43" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C43" t="n">
         <v>7140</v>
@@ -1179,11 +1259,13 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>43282</v>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>43312</v>
+      <c r="A44" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C44" t="n">
         <v>2705</v>
@@ -1196,11 +1278,13 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43313</v>
-      </c>
-      <c r="B45" s="2" t="n">
-        <v>43343</v>
+      <c r="A45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C45" t="n">
         <v>1741</v>
@@ -1213,11 +1297,13 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>43344</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>43373</v>
+      <c r="A46" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C46" t="n">
         <v>1293</v>
@@ -1230,11 +1316,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>43374</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>43404</v>
+      <c r="A47" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C47" t="n">
         <v>6918</v>
@@ -1247,11 +1335,13 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>43405</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>43434</v>
+      <c r="A48" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C48" t="n">
         <v>10202</v>
@@ -1264,11 +1354,13 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>43435</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>43465</v>
+      <c r="A49" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C49" t="n">
         <v>10226</v>
@@ -1281,11 +1373,13 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>43496</v>
+      <c r="A50" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C50" t="n">
         <v>5731</v>
@@ -1298,11 +1392,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>43497</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>43524</v>
+      <c r="A51" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C51" t="n">
         <v>7507</v>
@@ -1315,11 +1411,13 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>43525</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>43555</v>
+      <c r="A52" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C52" t="n">
         <v>1084</v>
@@ -1332,11 +1430,13 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>43585</v>
+      <c r="A53" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C53" t="n">
         <v>919</v>
@@ -1349,11 +1449,13 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>43586</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>43616</v>
+      <c r="A54" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C54" t="n">
         <v>8349</v>
@@ -1366,11 +1468,13 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>43617</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>43646</v>
+      <c r="A55" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C55" t="n">
         <v>4163</v>
@@ -1383,11 +1487,13 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>43647</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>43677</v>
+      <c r="A56" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C56" t="n">
         <v>3525</v>
@@ -1400,11 +1506,13 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>43678</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>43708</v>
+      <c r="A57" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C57" t="n">
         <v>3361</v>
@@ -1417,11 +1525,13 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>43709</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>43738</v>
+      <c r="A58" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C58" t="n">
         <v>2167</v>
@@ -1434,11 +1544,13 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>43739</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>43769</v>
+      <c r="A59" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C59" t="n">
         <v>10447</v>
@@ -1451,11 +1563,13 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>43770</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>43799</v>
+      <c r="A60" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C60" t="n">
         <v>8269</v>
@@ -1468,11 +1582,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>43800</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>43830</v>
+      <c r="A61" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C61" t="n">
         <v>8623</v>
@@ -1485,11 +1601,13 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>43861</v>
+      <c r="A62" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C62" t="n">
         <v>7384</v>
@@ -1502,11 +1620,13 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>43862</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>43890</v>
+      <c r="A63" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C63" t="n">
         <v>9942</v>
@@ -1519,11 +1639,13 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>43891</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>43921</v>
+      <c r="A64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>mart</t>
+        </is>
       </c>
       <c r="C64" t="n">
         <v>6199</v>
@@ -1536,11 +1658,13 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>43951</v>
+      <c r="A65" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>nisan</t>
+        </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1553,11 +1677,13 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>43982</v>
+      <c r="A66" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>mayis</t>
+        </is>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -1570,11 +1696,13 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>43983</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>44012</v>
+      <c r="A67" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>haziran</t>
+        </is>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1587,11 +1715,13 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>44043</v>
+      <c r="A68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>temmuz</t>
+        </is>
       </c>
       <c r="C68" t="n">
         <v>1620</v>
@@ -1604,11 +1734,13 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44044</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>44074</v>
+      <c r="A69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>agustos</t>
+        </is>
       </c>
       <c r="C69" t="n">
         <v>1352</v>
@@ -1621,11 +1753,13 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>44104</v>
+      <c r="A70" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>eylul</t>
+        </is>
       </c>
       <c r="C70" t="n">
         <v>220</v>
@@ -1638,11 +1772,13 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>44135</v>
+      <c r="A71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ekim</t>
+        </is>
       </c>
       <c r="C71" t="n">
         <v>1540</v>
@@ -1655,11 +1791,13 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44136</v>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>44165</v>
+      <c r="A72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>kasim</t>
+        </is>
       </c>
       <c r="C72" t="n">
         <v>600</v>
@@ -1672,11 +1810,13 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>44196</v>
+      <c r="A73" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>aralik</t>
+        </is>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -1689,11 +1829,13 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>44227</v>
+      <c r="A74" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ocak</t>
+        </is>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -1706,11 +1848,13 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44228</v>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>44255</v>
+      <c r="A75" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>subat</t>
+        </is>
       </c>
       <c r="C75" t="n">
         <v>0</v>
